--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8752516/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8752516/file.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
     <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,50 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -703,7 +747,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="801">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2527,6 +2571,438 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
@@ -2902,7 +3378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2942,10 +3418,138 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C067945</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pedro Alonso Gutierrez Ramirez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ALTAIR PARTICULARES</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>No data available due to empty data source, applied filter/selection criteria, or fields visibility.</t>
+          <t>z639393</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prueba de usuarios</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1234569</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>luis gerardo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>no1233</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ALTAIR PARTICULARES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C063723</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ivonne Araceli Franco Salais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C063723</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ivonne Araceli Franco Salais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ASEGURADORA</t>
         </is>
       </c>
     </row>
